--- a/WIP/files/Q10.xlsx
+++ b/WIP/files/Q10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3FFD56-A71F-4A67-B934-760BDBEBFD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADEB6AE-1BD7-412D-80BE-2F12CFAFF400}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,9 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/WIP/files/Q10.xlsx
+++ b/WIP/files/Q10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADEB6AE-1BD7-412D-80BE-2F12CFAFF400}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4937CA78-6011-469C-9AC9-6BF981A88A38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Jolie Wilkerson</t>
   </si>
   <si>
-    <t>Alina Perez</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -388,9 +385,6 @@
     <t>Crai Spad</t>
   </si>
   <si>
-    <t>Triop Skium</t>
-  </si>
-  <si>
     <t>Chais</t>
   </si>
   <si>
@@ -566,9 +560,6 @@
   </si>
   <si>
     <t>Raclette Courdavault</t>
-  </si>
-  <si>
-    <t>Camembert Pierrot</t>
   </si>
   <si>
     <t>Product</t>
@@ -912,346 +903,346 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1262,503 +1253,506 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D61">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WIP/files/Q10.xlsx
+++ b/WIP/files/Q10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4937CA78-6011-469C-9AC9-6BF981A88A38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C398E-2E91-46FF-983B-8915CF5CC9FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
   <si>
     <t>William Porter</t>
   </si>
@@ -205,9 +199,6 @@
     <t>Jolie Wilkerson</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Hufleayae</t>
   </si>
   <si>
@@ -560,25 +551,14 @@
   </si>
   <si>
     <t>Raclette Courdavault</t>
-  </si>
-  <si>
-    <t>Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -606,9 +586,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,869 +868,857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>180</v>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D61">
-    <sortCondition ref="A2"/>
+  <sortState ref="A1:D60">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
